--- a/Temperature_Converter_Test_Cases.xlsx
+++ b/Temperature_Converter_Test_Cases.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3053595-6866-4A4E-841C-FFB52BBA31CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB33343-A803-41C5-872D-9114A2C8AC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -266,6 +279,21 @@
   </si>
   <si>
     <t>ValueError class returned and Printed ("Invalid unit. Please enter C, F, or K.")</t>
+  </si>
+  <si>
+    <t>Beverly's Output</t>
+  </si>
+  <si>
+    <t>100=</t>
+  </si>
+  <si>
+    <t>273.15=</t>
+  </si>
+  <si>
+    <t>0=</t>
+  </si>
+  <si>
+    <t>invalid input</t>
   </si>
 </sst>
 </file>
@@ -281,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,9 +341,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,9 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -662,7 +699,7 @@
     <col min="6" max="6" width="37.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,8 +721,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -707,8 +750,12 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -730,8 +777,12 @@
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>373.15</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -753,8 +804,12 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -776,8 +831,12 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -799,8 +858,12 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -822,8 +885,12 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>373.15</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -845,8 +912,12 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -868,8 +939,12 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>-459.67</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -891,8 +966,9 @@
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -914,8 +990,9 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -937,8 +1014,9 @@
       <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -960,8 +1038,12 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -983,8 +1065,12 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1006,8 +1092,12 @@
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1029,8 +1119,12 @@
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>300</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1052,8 +1146,12 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1075,8 +1173,12 @@
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -1098,8 +1200,12 @@
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>300</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -1121,8 +1227,9 @@
       <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -1144,8 +1251,9 @@
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -1167,6 +1275,7 @@
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
